--- a/Lab/Table/Table.xlsx
+++ b/Lab/Table/Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UtotingPuwet\Desktop\GitHub\CSC17A\Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UtotingPuwet\Desktop\GitHub\CSC17A\Lab\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E92F1F-C3D9-403A-823F-D7C6D9A24F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C35261-DC9E-4236-A5B3-9411EA9BF33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2500" windowWidth="18851" windowHeight="9845" xr2:uid="{C70BAD4D-0251-4A7D-AE44-765F1859441C}"/>
+    <workbookView xWindow="8287" yWindow="10996" windowWidth="18850" windowHeight="9845" xr2:uid="{C70BAD4D-0251-4A7D-AE44-765F1859441C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,18 +177,9 @@
     <t>17</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>127</t>
   </si>
   <si>
-    <t>3F</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
     <t>10101</t>
   </si>
   <si>
@@ -238,6 +229,15 @@
   </si>
   <si>
     <t>Example problems from PDF also included in the PDF file</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4852F30A-25CB-4391-9783-80D37A99DA92}">
   <dimension ref="F8:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -899,7 +899,7 @@
         <v>22</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>10</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="29" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J29" s="2"/>
     </row>
@@ -924,28 +924,28 @@
     </row>
     <row r="31" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F32" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>38</v>
@@ -954,35 +954,35 @@
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F33" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F34" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F36" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="6:9" x14ac:dyDescent="0.3">
@@ -996,7 +996,7 @@
         <v>5274</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="6:9" x14ac:dyDescent="0.3">
@@ -1010,7 +1010,7 @@
         <v>642</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="6:9" x14ac:dyDescent="0.3">
@@ -1066,7 +1066,7 @@
         <v>153</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
